--- a/Tabela  1f - Taxas Específicas de Fecundidade.xlsx
+++ b/Tabela  1f - Taxas Específicas de Fecundidade.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1507,6 +1507,12 @@
       <c r="M23">
         <v>0.05140582363303513</v>
       </c>
+      <c r="N23">
+        <v>5927.666666666667</v>
+      </c>
+      <c r="O23">
+        <v>0.0511870631987381</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1552,6 +1558,12 @@
       <c r="M24">
         <v>0.07966786173854633</v>
       </c>
+      <c r="N24">
+        <v>9724.333333333334</v>
+      </c>
+      <c r="O24">
+        <v>0.07869939491055845</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1597,6 +1609,12 @@
       <c r="M25">
         <v>0.07823641950257985</v>
       </c>
+      <c r="N25">
+        <v>10798</v>
+      </c>
+      <c r="O25">
+        <v>0.07825091309641138</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1642,6 +1660,12 @@
       <c r="M26">
         <v>0.07447956290199875</v>
       </c>
+      <c r="N26">
+        <v>10650.66666666667</v>
+      </c>
+      <c r="O26">
+        <v>0.07366115683426701</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1687,6 +1711,12 @@
       <c r="M27">
         <v>0.04430458527173998</v>
       </c>
+      <c r="N27">
+        <v>5697.333333333333</v>
+      </c>
+      <c r="O27">
+        <v>0.04432273757474859</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1732,6 +1762,12 @@
       <c r="M28">
         <v>0.01266797117711975</v>
       </c>
+      <c r="N28">
+        <v>1359.666666666667</v>
+      </c>
+      <c r="O28">
+        <v>0.01260923729416093</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1777,11 +1813,17 @@
       <c r="M29">
         <v>0.001131592584367101</v>
       </c>
+      <c r="N29">
+        <v>91.66666666666667</v>
+      </c>
+      <c r="O29">
+        <v>0.0009694328993799155</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1790,43 +1832,49 @@
         </is>
       </c>
       <c r="C30">
-        <v>5679</v>
+        <v>5906</v>
       </c>
       <c r="D30">
-        <v>2907</v>
+        <v>2991</v>
       </c>
       <c r="E30">
-        <v>2772</v>
+        <v>2915</v>
       </c>
       <c r="F30">
-        <v>46122</v>
+        <v>44721</v>
       </c>
       <c r="G30">
-        <v>46116</v>
+        <v>44718</v>
       </c>
       <c r="H30">
-        <v>0.1231459797033568</v>
+        <v>0.1320720962475961</v>
       </c>
       <c r="I30">
-        <v>5680</v>
+        <v>5906</v>
       </c>
       <c r="J30">
-        <v>2908</v>
+        <v>2991</v>
       </c>
       <c r="K30">
-        <v>2772</v>
+        <v>2915</v>
       </c>
       <c r="L30">
-        <v>117243</v>
+        <v>116661</v>
       </c>
       <c r="M30">
-        <v>0.04844638912344447</v>
+        <v>0.05062531608678136</v>
+      </c>
+      <c r="N30">
+        <v>5846.333333333333</v>
+      </c>
+      <c r="O30">
+        <v>0.05011386267332985</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1835,43 +1883,49 @@
         </is>
       </c>
       <c r="C31">
-        <v>9748</v>
+        <v>9697</v>
       </c>
       <c r="D31">
-        <v>4971</v>
+        <v>4976</v>
       </c>
       <c r="E31">
-        <v>4774</v>
+        <v>4716</v>
       </c>
       <c r="F31">
-        <v>46122</v>
+        <v>44721</v>
       </c>
       <c r="G31">
-        <v>46116</v>
+        <v>44718</v>
       </c>
       <c r="H31">
-        <v>0.2113799982652442</v>
+        <v>0.2168478017800438</v>
       </c>
       <c r="I31">
-        <v>9749</v>
+        <v>9698</v>
       </c>
       <c r="J31">
-        <v>4973</v>
+        <v>4979</v>
       </c>
       <c r="K31">
-        <v>4776</v>
+        <v>4719</v>
       </c>
       <c r="L31">
-        <v>123253</v>
+        <v>123178</v>
       </c>
       <c r="M31">
-        <v>0.0790974661874356</v>
+        <v>0.07873159168033253</v>
+      </c>
+      <c r="N31">
+        <v>9763.666666666666</v>
+      </c>
+      <c r="O31">
+        <v>0.07926469553545816</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1880,43 +1934,49 @@
         </is>
       </c>
       <c r="C32">
-        <v>10932</v>
+        <v>10750</v>
       </c>
       <c r="D32">
-        <v>5629</v>
+        <v>5559</v>
       </c>
       <c r="E32">
-        <v>5300</v>
+        <v>5191</v>
       </c>
       <c r="F32">
-        <v>46122</v>
+        <v>44721</v>
       </c>
       <c r="G32">
-        <v>46116</v>
+        <v>44718</v>
       </c>
       <c r="H32">
-        <v>0.2370543845953682</v>
+        <v>0.2403953665190751</v>
       </c>
       <c r="I32">
-        <v>10933</v>
+        <v>10751</v>
       </c>
       <c r="J32">
-        <v>5631</v>
+        <v>5560</v>
       </c>
       <c r="K32">
-        <v>5302</v>
+        <v>5191</v>
       </c>
       <c r="L32">
-        <v>133803</v>
+        <v>135701</v>
       </c>
       <c r="M32">
-        <v>0.0817096776604411</v>
+        <v>0.07922565051105003</v>
+      </c>
+      <c r="N32">
+        <v>10826.66666666667</v>
+      </c>
+      <c r="O32">
+        <v>0.07978324895665224</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1925,43 +1985,49 @@
         </is>
       </c>
       <c r="C33">
-        <v>11502</v>
+        <v>10751</v>
       </c>
       <c r="D33">
-        <v>5972</v>
+        <v>5507</v>
       </c>
       <c r="E33">
-        <v>5528</v>
+        <v>5242</v>
       </c>
       <c r="F33">
-        <v>46122</v>
+        <v>44721</v>
       </c>
       <c r="G33">
-        <v>46116</v>
+        <v>44718</v>
       </c>
       <c r="H33">
-        <v>0.2494145199063232</v>
+        <v>0.2404177288787513</v>
       </c>
       <c r="I33">
-        <v>11503</v>
+        <v>10752</v>
       </c>
       <c r="J33">
-        <v>5974</v>
+        <v>5509</v>
       </c>
       <c r="K33">
-        <v>5529</v>
+        <v>5243</v>
       </c>
       <c r="L33">
-        <v>145956</v>
+        <v>145786</v>
       </c>
       <c r="M33">
-        <v>0.07881142262051577</v>
+        <v>0.0737519377718025</v>
+      </c>
+      <c r="N33">
+        <v>11008</v>
+      </c>
+      <c r="O33">
+        <v>0.07550793629017875</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1970,43 +2036,49 @@
         </is>
       </c>
       <c r="C34">
-        <v>6654</v>
+        <v>6108</v>
       </c>
       <c r="D34">
-        <v>3422</v>
+        <v>3071</v>
       </c>
       <c r="E34">
-        <v>3229</v>
+        <v>3037</v>
       </c>
       <c r="F34">
-        <v>46122</v>
+        <v>44721</v>
       </c>
       <c r="G34">
-        <v>46116</v>
+        <v>44718</v>
       </c>
       <c r="H34">
-        <v>0.144288316419464</v>
+        <v>0.136589292902187</v>
       </c>
       <c r="I34">
-        <v>6655</v>
+        <v>6108</v>
       </c>
       <c r="J34">
-        <v>3424</v>
+        <v>3071</v>
       </c>
       <c r="K34">
-        <v>3231</v>
+        <v>3037</v>
       </c>
       <c r="L34">
-        <v>137504</v>
+        <v>133378</v>
       </c>
       <c r="M34">
-        <v>0.04839859204095881</v>
+        <v>0.04579465878930558</v>
+      </c>
+      <c r="N34">
+        <v>6152.666666666667</v>
+      </c>
+      <c r="O34">
+        <v>0.04612954660188837</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2015,43 +2087,49 @@
         </is>
       </c>
       <c r="C35">
-        <v>1502</v>
+        <v>1430</v>
       </c>
       <c r="D35">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="E35">
-        <v>762</v>
+        <v>703</v>
       </c>
       <c r="F35">
-        <v>46122</v>
+        <v>44721</v>
       </c>
       <c r="G35">
-        <v>46116</v>
+        <v>44718</v>
       </c>
       <c r="H35">
-        <v>0.03257004076676208</v>
+        <v>0.03197817433695604</v>
       </c>
       <c r="I35">
-        <v>1502</v>
+        <v>1430</v>
       </c>
       <c r="J35">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="K35">
-        <v>763</v>
+        <v>703</v>
       </c>
       <c r="L35">
-        <v>114549</v>
+        <v>110854</v>
       </c>
       <c r="M35">
-        <v>0.01311229255602406</v>
+        <v>0.01289985025348657</v>
+      </c>
+      <c r="N35">
+        <v>1432.666666666667</v>
+      </c>
+      <c r="O35">
+        <v>0.01292390591829493</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2060,43 +2138,49 @@
         </is>
       </c>
       <c r="C36">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F36">
-        <v>46122</v>
+        <v>44721</v>
       </c>
       <c r="G36">
-        <v>46116</v>
+        <v>44718</v>
       </c>
       <c r="H36">
-        <v>0.002146760343481655</v>
+        <v>0.00169953933539067</v>
       </c>
       <c r="I36">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="J36">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K36">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L36">
-        <v>99930</v>
+        <v>97276</v>
       </c>
       <c r="M36">
-        <v>0.0009906934854398079</v>
+        <v>0.0007812821250873802</v>
+      </c>
+      <c r="N36">
+        <v>94</v>
+      </c>
+      <c r="O36">
+        <v>0.0009663226283975492</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2105,49 +2189,49 @@
         </is>
       </c>
       <c r="C37">
-        <v>5159</v>
+        <v>5679</v>
       </c>
       <c r="D37">
-        <v>2554</v>
+        <v>2907</v>
       </c>
       <c r="E37">
-        <v>2604</v>
+        <v>2772</v>
       </c>
       <c r="F37">
-        <v>43340</v>
+        <v>46122</v>
       </c>
       <c r="G37">
-        <v>43331</v>
+        <v>46116</v>
       </c>
       <c r="H37">
-        <v>0.1190602570907664</v>
+        <v>0.1231459797033568</v>
       </c>
       <c r="I37">
-        <v>5160</v>
+        <v>5680</v>
       </c>
       <c r="J37">
-        <v>2555</v>
+        <v>2908</v>
       </c>
       <c r="K37">
-        <v>2605</v>
+        <v>2772</v>
       </c>
       <c r="L37">
-        <v>118197</v>
+        <v>117243</v>
       </c>
       <c r="M37">
-        <v>0.04365593035356227</v>
+        <v>0.04844638912344447</v>
       </c>
       <c r="N37">
-        <v>5266.666666666667</v>
+        <v>5582</v>
       </c>
       <c r="O37">
-        <v>0.04455837852624573</v>
+        <v>0.04761051832518786</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2156,49 +2240,49 @@
         </is>
       </c>
       <c r="C38">
-        <v>9346</v>
+        <v>9748</v>
       </c>
       <c r="D38">
-        <v>4778</v>
+        <v>4971</v>
       </c>
       <c r="E38">
-        <v>4568</v>
+        <v>4774</v>
       </c>
       <c r="F38">
-        <v>43340</v>
+        <v>46122</v>
       </c>
       <c r="G38">
-        <v>43331</v>
+        <v>46116</v>
       </c>
       <c r="H38">
-        <v>0.2156885370750733</v>
+        <v>0.2113799982652442</v>
       </c>
       <c r="I38">
-        <v>9348</v>
+        <v>9749</v>
       </c>
       <c r="J38">
-        <v>4779</v>
+        <v>4973</v>
       </c>
       <c r="K38">
-        <v>4569</v>
+        <v>4776</v>
       </c>
       <c r="L38">
-        <v>123683</v>
+        <v>123253</v>
       </c>
       <c r="M38">
-        <v>0.0755803141903091</v>
+        <v>0.0790974661874356</v>
       </c>
       <c r="N38">
-        <v>9509.666666666666</v>
+        <v>9598.333333333334</v>
       </c>
       <c r="O38">
-        <v>0.07688741918183312</v>
+        <v>0.07787504834229864</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2207,49 +2291,49 @@
         </is>
       </c>
       <c r="C39">
-        <v>10074</v>
+        <v>10932</v>
       </c>
       <c r="D39">
-        <v>5162</v>
+        <v>5629</v>
       </c>
       <c r="E39">
-        <v>4911</v>
+        <v>5300</v>
       </c>
       <c r="F39">
-        <v>43340</v>
+        <v>46122</v>
       </c>
       <c r="G39">
-        <v>43331</v>
+        <v>46116</v>
       </c>
       <c r="H39">
-        <v>0.2324894417391706</v>
+        <v>0.2370543845953682</v>
       </c>
       <c r="I39">
-        <v>10076</v>
+        <v>10933</v>
       </c>
       <c r="J39">
-        <v>5164</v>
+        <v>5631</v>
       </c>
       <c r="K39">
-        <v>4912</v>
+        <v>5302</v>
       </c>
       <c r="L39">
-        <v>132224</v>
+        <v>133803</v>
       </c>
       <c r="M39">
-        <v>0.0762040174249758</v>
+        <v>0.0817096776604411</v>
       </c>
       <c r="N39">
-        <v>10494.66666666667</v>
+        <v>10586.66666666667</v>
       </c>
       <c r="O39">
-        <v>0.07937036140690545</v>
+        <v>0.07912129523752581</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2258,49 +2342,49 @@
         </is>
       </c>
       <c r="C40">
-        <v>10653</v>
+        <v>11502</v>
       </c>
       <c r="D40">
-        <v>5462</v>
+        <v>5972</v>
       </c>
       <c r="E40">
-        <v>5190</v>
+        <v>5528</v>
       </c>
       <c r="F40">
-        <v>43340</v>
+        <v>46122</v>
       </c>
       <c r="G40">
-        <v>43331</v>
+        <v>46116</v>
       </c>
       <c r="H40">
-        <v>0.2458516997069073</v>
+        <v>0.2494145199063232</v>
       </c>
       <c r="I40">
-        <v>10655</v>
+        <v>11503</v>
       </c>
       <c r="J40">
-        <v>5464</v>
+        <v>5974</v>
       </c>
       <c r="K40">
-        <v>5191</v>
+        <v>5529</v>
       </c>
       <c r="L40">
-        <v>145164</v>
+        <v>145956</v>
       </c>
       <c r="M40">
-        <v>0.07339974098261277</v>
+        <v>0.07881142262051577</v>
       </c>
       <c r="N40">
-        <v>10951.66666666667</v>
+        <v>10970</v>
       </c>
       <c r="O40">
-        <v>0.07544340653789278</v>
+        <v>0.07515963715092219</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2309,49 +2393,49 @@
         </is>
       </c>
       <c r="C41">
-        <v>6394</v>
+        <v>6654</v>
       </c>
       <c r="D41">
-        <v>3239</v>
+        <v>3422</v>
       </c>
       <c r="E41">
-        <v>3154</v>
+        <v>3229</v>
       </c>
       <c r="F41">
-        <v>43340</v>
+        <v>46122</v>
       </c>
       <c r="G41">
-        <v>43331</v>
+        <v>46116</v>
       </c>
       <c r="H41">
-        <v>0.1475617917887886</v>
+        <v>0.144288316419464</v>
       </c>
       <c r="I41">
-        <v>6395</v>
+        <v>6655</v>
       </c>
       <c r="J41">
-        <v>3240</v>
+        <v>3424</v>
       </c>
       <c r="K41">
-        <v>3155</v>
+        <v>3231</v>
       </c>
       <c r="L41">
-        <v>140982</v>
+        <v>137504</v>
       </c>
       <c r="M41">
-        <v>0.04536040061851868</v>
+        <v>0.04839859204095881</v>
       </c>
       <c r="N41">
-        <v>6726.666666666667</v>
+        <v>6386</v>
       </c>
       <c r="O41">
-        <v>0.04771294680644811</v>
+        <v>0.04644228531533628</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2360,49 +2444,49 @@
         </is>
       </c>
       <c r="C42">
-        <v>1599</v>
+        <v>1502</v>
       </c>
       <c r="D42">
-        <v>806</v>
+        <v>738</v>
       </c>
       <c r="E42">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="F42">
-        <v>43340</v>
+        <v>46122</v>
       </c>
       <c r="G42">
-        <v>43331</v>
+        <v>46116</v>
       </c>
       <c r="H42">
-        <v>0.03690198703007085</v>
+        <v>0.03257004076676208</v>
       </c>
       <c r="I42">
-        <v>1599</v>
+        <v>1502</v>
       </c>
       <c r="J42">
-        <v>806</v>
+        <v>739</v>
       </c>
       <c r="K42">
-        <v>793</v>
+        <v>763</v>
       </c>
       <c r="L42">
-        <v>118845</v>
+        <v>114549</v>
       </c>
       <c r="M42">
-        <v>0.01345449955824814</v>
+        <v>0.01311229255602406</v>
       </c>
       <c r="N42">
-        <v>1616.666666666667</v>
+        <v>1510.333333333333</v>
       </c>
       <c r="O42">
-        <v>0.01360315256566677</v>
+        <v>0.01318504162701842</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2411,49 +2495,49 @@
         </is>
       </c>
       <c r="C43">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D43">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E43">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F43">
-        <v>43340</v>
+        <v>46122</v>
       </c>
       <c r="G43">
-        <v>43331</v>
+        <v>46116</v>
       </c>
       <c r="H43">
-        <v>0.002446285569222958</v>
+        <v>0.002146760343481655</v>
       </c>
       <c r="I43">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J43">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L43">
-        <v>102507</v>
+        <v>99930</v>
       </c>
       <c r="M43">
-        <v>0.001034075721658033</v>
+        <v>0.0009906934854398079</v>
       </c>
       <c r="N43">
-        <v>110</v>
+        <v>93.66666666666667</v>
       </c>
       <c r="O43">
-        <v>0.001073097447003619</v>
+        <v>0.0009373227926215017</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2462,49 +2546,49 @@
         </is>
       </c>
       <c r="C44">
-        <v>4959</v>
+        <v>5159</v>
       </c>
       <c r="D44">
-        <v>2533</v>
+        <v>2554</v>
       </c>
       <c r="E44">
-        <v>2424</v>
+        <v>2604</v>
       </c>
       <c r="F44">
-        <v>44568</v>
+        <v>43340</v>
       </c>
       <c r="G44">
-        <v>44555</v>
+        <v>43331</v>
       </c>
       <c r="H44">
-        <v>0.1113006396588486</v>
+        <v>0.1190602570907664</v>
       </c>
       <c r="I44">
-        <v>4960</v>
+        <v>5160</v>
       </c>
       <c r="J44">
-        <v>2535</v>
+        <v>2555</v>
       </c>
       <c r="K44">
-        <v>2425</v>
+        <v>2605</v>
       </c>
       <c r="L44">
-        <v>118563</v>
+        <v>118197</v>
       </c>
       <c r="M44">
-        <v>0.0418342990646323</v>
+        <v>0.04365593035356227</v>
       </c>
       <c r="N44">
-        <v>4951.666666666667</v>
+        <v>5266.666666666667</v>
       </c>
       <c r="O44">
-        <v>0.041764012943892</v>
+        <v>0.04455837852624573</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2513,49 +2597,49 @@
         </is>
       </c>
       <c r="C45">
-        <v>9429</v>
+        <v>9346</v>
       </c>
       <c r="D45">
-        <v>4681</v>
+        <v>4778</v>
       </c>
       <c r="E45">
-        <v>4745</v>
+        <v>4568</v>
       </c>
       <c r="F45">
-        <v>44568</v>
+        <v>43340</v>
       </c>
       <c r="G45">
-        <v>44555</v>
+        <v>43331</v>
       </c>
       <c r="H45">
-        <v>0.2116260801256873</v>
+        <v>0.2156885370750733</v>
       </c>
       <c r="I45">
-        <v>9432</v>
+        <v>9348</v>
       </c>
       <c r="J45">
-        <v>4684</v>
+        <v>4779</v>
       </c>
       <c r="K45">
-        <v>4748</v>
+        <v>4569</v>
       </c>
       <c r="L45">
-        <v>124380</v>
+        <v>123683</v>
       </c>
       <c r="M45">
-        <v>0.07583212735166425</v>
+        <v>0.0755803141903091</v>
       </c>
       <c r="N45">
-        <v>9269.666666666666</v>
+        <v>9509.666666666666</v>
       </c>
       <c r="O45">
-        <v>0.07452698718979471</v>
+        <v>0.07688741918183312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2564,49 +2648,49 @@
         </is>
       </c>
       <c r="C46">
-        <v>10472</v>
+        <v>10074</v>
       </c>
       <c r="D46">
-        <v>5376</v>
+        <v>5162</v>
       </c>
       <c r="E46">
-        <v>5095</v>
+        <v>4911</v>
       </c>
       <c r="F46">
-        <v>44568</v>
+        <v>43340</v>
       </c>
       <c r="G46">
-        <v>44555</v>
+        <v>43331</v>
       </c>
       <c r="H46">
-        <v>0.2350353495679497</v>
+        <v>0.2324894417391706</v>
       </c>
       <c r="I46">
-        <v>10475</v>
+        <v>10076</v>
       </c>
       <c r="J46">
-        <v>5378</v>
+        <v>5164</v>
       </c>
       <c r="K46">
-        <v>5097</v>
+        <v>4912</v>
       </c>
       <c r="L46">
-        <v>130936</v>
+        <v>132224</v>
       </c>
       <c r="M46">
-        <v>0.08000091647827946</v>
+        <v>0.0762040174249758</v>
       </c>
       <c r="N46">
-        <v>10208.33333333333</v>
+        <v>10494.66666666667</v>
       </c>
       <c r="O46">
-        <v>0.07796429807946885</v>
+        <v>0.07937036140690545</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2615,49 +2699,49 @@
         </is>
       </c>
       <c r="C47">
-        <v>10694</v>
+        <v>10653</v>
       </c>
       <c r="D47">
-        <v>5485</v>
+        <v>5462</v>
       </c>
       <c r="E47">
-        <v>5209</v>
+        <v>5190</v>
       </c>
       <c r="F47">
-        <v>44568</v>
+        <v>43340</v>
       </c>
       <c r="G47">
-        <v>44555</v>
+        <v>43331</v>
       </c>
       <c r="H47">
-        <v>0.2400179553361015</v>
+        <v>0.2458516997069073</v>
       </c>
       <c r="I47">
-        <v>10697</v>
+        <v>10655</v>
       </c>
       <c r="J47">
-        <v>5487</v>
+        <v>5464</v>
       </c>
       <c r="K47">
-        <v>5210</v>
+        <v>5191</v>
       </c>
       <c r="L47">
-        <v>143413</v>
+        <v>145164</v>
       </c>
       <c r="M47">
-        <v>0.07458877507617859</v>
+        <v>0.07339974098261277</v>
       </c>
       <c r="N47">
-        <v>10676</v>
+        <v>10951.66666666667</v>
       </c>
       <c r="O47">
-        <v>0.07444234483624218</v>
+        <v>0.07544340653789278</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2666,49 +2750,49 @@
         </is>
       </c>
       <c r="C48">
-        <v>7128</v>
+        <v>6394</v>
       </c>
       <c r="D48">
-        <v>3634</v>
+        <v>3239</v>
       </c>
       <c r="E48">
-        <v>3492</v>
+        <v>3154</v>
       </c>
       <c r="F48">
-        <v>44568</v>
+        <v>43340</v>
       </c>
       <c r="G48">
-        <v>44555</v>
+        <v>43331</v>
       </c>
       <c r="H48">
-        <v>0.1599820446638986</v>
+        <v>0.1475617917887886</v>
       </c>
       <c r="I48">
-        <v>7130</v>
+        <v>6395</v>
       </c>
       <c r="J48">
-        <v>3636</v>
+        <v>3240</v>
       </c>
       <c r="K48">
-        <v>3494</v>
+        <v>3155</v>
       </c>
       <c r="L48">
-        <v>143862</v>
+        <v>140982</v>
       </c>
       <c r="M48">
-        <v>0.04956138521638793</v>
+        <v>0.04536040061851868</v>
       </c>
       <c r="N48">
-        <v>7065</v>
+        <v>6726.666666666667</v>
       </c>
       <c r="O48">
-        <v>0.04910956333152604</v>
+        <v>0.04771294680644811</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2717,49 +2801,49 @@
         </is>
       </c>
       <c r="C49">
-        <v>1748</v>
+        <v>1599</v>
       </c>
       <c r="D49">
-        <v>911</v>
+        <v>806</v>
       </c>
       <c r="E49">
-        <v>837</v>
+        <v>793</v>
       </c>
       <c r="F49">
-        <v>44568</v>
+        <v>43340</v>
       </c>
       <c r="G49">
-        <v>44555</v>
+        <v>43331</v>
       </c>
       <c r="H49">
-        <v>0.03923240938166311</v>
+        <v>0.03690198703007085</v>
       </c>
       <c r="I49">
-        <v>1749</v>
+        <v>1599</v>
       </c>
       <c r="J49">
-        <v>912</v>
+        <v>806</v>
       </c>
       <c r="K49">
-        <v>837</v>
+        <v>793</v>
       </c>
       <c r="L49">
-        <v>123744</v>
+        <v>118845</v>
       </c>
       <c r="M49">
-        <v>0.01413401861908456</v>
+        <v>0.01345449955824814</v>
       </c>
       <c r="N49">
-        <v>1742.333333333333</v>
+        <v>1616.666666666667</v>
       </c>
       <c r="O49">
-        <v>0.01408014395310749</v>
+        <v>0.01360315256566677</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2768,49 +2852,49 @@
         </is>
       </c>
       <c r="C50">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D50">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E50">
         <v>53</v>
       </c>
       <c r="F50">
-        <v>44568</v>
+        <v>43340</v>
       </c>
       <c r="G50">
-        <v>44555</v>
+        <v>43331</v>
       </c>
       <c r="H50">
-        <v>0.002805521265851195</v>
+        <v>0.002446285569222958</v>
       </c>
       <c r="I50">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J50">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K50">
         <v>53</v>
       </c>
       <c r="L50">
-        <v>104942</v>
+        <v>102507</v>
       </c>
       <c r="M50">
-        <v>0.001191134150292542</v>
+        <v>0.001034075721658033</v>
       </c>
       <c r="N50">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O50">
-        <v>0.001153017857483181</v>
+        <v>0.001073097447003619</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2819,49 +2903,49 @@
         </is>
       </c>
       <c r="C51">
-        <v>4734</v>
+        <v>4959</v>
       </c>
       <c r="D51">
-        <v>2470</v>
+        <v>2533</v>
       </c>
       <c r="E51">
-        <v>2264</v>
+        <v>2424</v>
       </c>
       <c r="F51">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="G51">
-        <v>44186</v>
+        <v>44555</v>
       </c>
       <c r="H51">
-        <v>0.1071380075136921</v>
+        <v>0.1113006396588486</v>
       </c>
       <c r="I51">
-        <v>4735</v>
+        <v>4960</v>
       </c>
       <c r="J51">
-        <v>2471</v>
+        <v>2535</v>
       </c>
       <c r="K51">
-        <v>2264</v>
+        <v>2425</v>
       </c>
       <c r="L51">
-        <v>118559</v>
+        <v>118563</v>
       </c>
       <c r="M51">
-        <v>0.03993792120378883</v>
+        <v>0.0418342990646323</v>
       </c>
       <c r="N51">
-        <v>4686</v>
+        <v>4951.666666666667</v>
       </c>
       <c r="O51">
-        <v>0.03952462487031773</v>
+        <v>0.041764012943892</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2870,49 +2954,49 @@
         </is>
       </c>
       <c r="C52">
-        <v>9027</v>
+        <v>9429</v>
       </c>
       <c r="D52">
-        <v>4587</v>
+        <v>4681</v>
       </c>
       <c r="E52">
-        <v>4435</v>
+        <v>4745</v>
       </c>
       <c r="F52">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="G52">
-        <v>44186</v>
+        <v>44555</v>
       </c>
       <c r="H52">
-        <v>0.2042954782057665</v>
+        <v>0.2116260801256873</v>
       </c>
       <c r="I52">
-        <v>9029</v>
+        <v>9432</v>
       </c>
       <c r="J52">
-        <v>4591</v>
+        <v>4684</v>
       </c>
       <c r="K52">
-        <v>4438</v>
+        <v>4748</v>
       </c>
       <c r="L52">
-        <v>125194</v>
+        <v>124380</v>
       </c>
       <c r="M52">
-        <v>0.07212006965190025</v>
+        <v>0.07583212735166425</v>
       </c>
       <c r="N52">
-        <v>9048.666666666666</v>
+        <v>9269.666666666666</v>
       </c>
       <c r="O52">
-        <v>0.07227715918228243</v>
+        <v>0.07452698718979471</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2921,49 +3005,49 @@
         </is>
       </c>
       <c r="C53">
-        <v>10072</v>
+        <v>10472</v>
       </c>
       <c r="D53">
-        <v>5082</v>
+        <v>5376</v>
       </c>
       <c r="E53">
-        <v>4989</v>
+        <v>5095</v>
       </c>
       <c r="F53">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="G53">
-        <v>44186</v>
+        <v>44555</v>
       </c>
       <c r="H53">
-        <v>0.2279455031005296</v>
+        <v>0.2350353495679497</v>
       </c>
       <c r="I53">
-        <v>10074</v>
+        <v>10475</v>
       </c>
       <c r="J53">
-        <v>5084</v>
+        <v>5378</v>
       </c>
       <c r="K53">
-        <v>4990</v>
+        <v>5097</v>
       </c>
       <c r="L53">
-        <v>130027</v>
+        <v>130936</v>
       </c>
       <c r="M53">
-        <v>0.07747621647811609</v>
+        <v>0.08000091647827946</v>
       </c>
       <c r="N53">
-        <v>10021.66666666667</v>
+        <v>10208.33333333333</v>
       </c>
       <c r="O53">
-        <v>0.077073735967658</v>
+        <v>0.07796429807946885</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2972,49 +3056,49 @@
         </is>
       </c>
       <c r="C54">
-        <v>10674</v>
+        <v>10694</v>
       </c>
       <c r="D54">
-        <v>5467</v>
+        <v>5485</v>
       </c>
       <c r="E54">
-        <v>5204</v>
+        <v>5209</v>
       </c>
       <c r="F54">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="G54">
-        <v>44186</v>
+        <v>44555</v>
       </c>
       <c r="H54">
-        <v>0.2415697279681347</v>
+        <v>0.2400179553361015</v>
       </c>
       <c r="I54">
+        <v>10697</v>
+      </c>
+      <c r="J54">
+        <v>5487</v>
+      </c>
+      <c r="K54">
+        <v>5210</v>
+      </c>
+      <c r="L54">
+        <v>143413</v>
+      </c>
+      <c r="M54">
+        <v>0.07458877507617859</v>
+      </c>
+      <c r="N54">
         <v>10676</v>
       </c>
-      <c r="J54">
-        <v>5470</v>
-      </c>
-      <c r="K54">
-        <v>5206</v>
-      </c>
-      <c r="L54">
-        <v>141082</v>
-      </c>
-      <c r="M54">
-        <v>0.07567230405012687</v>
-      </c>
-      <c r="N54">
-        <v>10501.66666666667</v>
-      </c>
       <c r="O54">
-        <v>0.0744366160578009</v>
+        <v>0.07444234483624218</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3023,49 +3107,49 @@
         </is>
       </c>
       <c r="C55">
-        <v>7668</v>
+        <v>7128</v>
       </c>
       <c r="D55">
-        <v>3779</v>
+        <v>3634</v>
       </c>
       <c r="E55">
-        <v>3887</v>
+        <v>3492</v>
       </c>
       <c r="F55">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="G55">
-        <v>44186</v>
+        <v>44555</v>
       </c>
       <c r="H55">
-        <v>0.1735391300411895</v>
+        <v>0.1599820446638986</v>
       </c>
       <c r="I55">
-        <v>7670</v>
+        <v>7130</v>
       </c>
       <c r="J55">
-        <v>3781</v>
+        <v>3636</v>
       </c>
       <c r="K55">
-        <v>3889</v>
+        <v>3494</v>
       </c>
       <c r="L55">
-        <v>145982</v>
+        <v>143862</v>
       </c>
       <c r="M55">
-        <v>0.05254072419887383</v>
+        <v>0.04956138521638793</v>
       </c>
       <c r="N55">
-        <v>7439.666666666667</v>
+        <v>7065</v>
       </c>
       <c r="O55">
-        <v>0.05096290410233225</v>
+        <v>0.04910956333152604</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3074,49 +3158,49 @@
         </is>
       </c>
       <c r="C56">
-        <v>1879</v>
+        <v>1748</v>
       </c>
       <c r="D56">
-        <v>958</v>
+        <v>911</v>
       </c>
       <c r="E56">
-        <v>921</v>
+        <v>837</v>
       </c>
       <c r="F56">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="G56">
-        <v>44186</v>
+        <v>44555</v>
       </c>
       <c r="H56">
-        <v>0.04252478160503327</v>
+        <v>0.03923240938166311</v>
       </c>
       <c r="I56">
-        <v>1879</v>
+        <v>1749</v>
       </c>
       <c r="J56">
-        <v>958</v>
+        <v>912</v>
       </c>
       <c r="K56">
-        <v>921</v>
+        <v>837</v>
       </c>
       <c r="L56">
-        <v>128882</v>
+        <v>123744</v>
       </c>
       <c r="M56">
-        <v>0.0145792275104359</v>
+        <v>0.01413401861908456</v>
       </c>
       <c r="N56">
-        <v>1902.333333333333</v>
+        <v>1742.333333333333</v>
       </c>
       <c r="O56">
-        <v>0.01476027166969269</v>
+        <v>0.01408014395310749</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3125,49 +3209,49 @@
         </is>
       </c>
       <c r="C57">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D57">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E57">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F57">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="G57">
-        <v>44186</v>
+        <v>44555</v>
       </c>
       <c r="H57">
-        <v>0.002987371565654279</v>
+        <v>0.002805521265851195</v>
       </c>
       <c r="I57">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J57">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K57">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L57">
-        <v>107477</v>
+        <v>104942</v>
       </c>
       <c r="M57">
-        <v>0.001228169747946072</v>
+        <v>0.001191134150292542</v>
       </c>
       <c r="N57">
-        <v>128.6666666666667</v>
+        <v>121</v>
       </c>
       <c r="O57">
-        <v>0.001197155360371676</v>
+        <v>0.001153017857483181</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3176,49 +3260,49 @@
         </is>
       </c>
       <c r="C58">
-        <v>4361</v>
+        <v>4734</v>
       </c>
       <c r="D58">
-        <v>2168</v>
+        <v>2470</v>
       </c>
       <c r="E58">
-        <v>2192</v>
+        <v>2264</v>
       </c>
       <c r="F58">
-        <v>42422</v>
+        <v>44195</v>
       </c>
       <c r="G58">
-        <v>42406</v>
+        <v>44186</v>
       </c>
       <c r="H58">
-        <v>0.1028392208649719</v>
+        <v>0.1071380075136921</v>
       </c>
       <c r="I58">
-        <v>4363</v>
+        <v>4735</v>
       </c>
       <c r="J58">
-        <v>2169</v>
+        <v>2471</v>
       </c>
       <c r="K58">
-        <v>2194</v>
+        <v>2264</v>
       </c>
       <c r="L58">
-        <v>118277</v>
+        <v>118559</v>
       </c>
       <c r="M58">
-        <v>0.0368879832934552</v>
+        <v>0.03993792120378883</v>
       </c>
       <c r="N58">
-        <v>4290.333333333333</v>
+        <v>4686</v>
       </c>
       <c r="O58">
-        <v>0.03627360630835524</v>
+        <v>0.03952462487031773</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3227,49 +3311,49 @@
         </is>
       </c>
       <c r="C59">
-        <v>8682</v>
+        <v>9027</v>
       </c>
       <c r="D59">
-        <v>4556</v>
+        <v>4587</v>
       </c>
       <c r="E59">
-        <v>4124</v>
+        <v>4435</v>
       </c>
       <c r="F59">
-        <v>42422</v>
+        <v>44195</v>
       </c>
       <c r="G59">
-        <v>42406</v>
+        <v>44186</v>
       </c>
       <c r="H59">
-        <v>0.204735178984106</v>
+        <v>0.2042954782057665</v>
       </c>
       <c r="I59">
-        <v>8685</v>
+        <v>9029</v>
       </c>
       <c r="J59">
-        <v>4559</v>
+        <v>4591</v>
       </c>
       <c r="K59">
-        <v>4126</v>
+        <v>4438</v>
       </c>
       <c r="L59">
-        <v>125900</v>
+        <v>125194</v>
       </c>
       <c r="M59">
-        <v>0.06898332009531374</v>
+        <v>0.07212006965190025</v>
       </c>
       <c r="N59">
-        <v>8590</v>
+        <v>9048.666666666666</v>
       </c>
       <c r="O59">
-        <v>0.06822875297855441</v>
+        <v>0.07227715918228243</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3278,49 +3362,49 @@
         </is>
       </c>
       <c r="C60">
-        <v>9512</v>
+        <v>10072</v>
       </c>
       <c r="D60">
-        <v>4883</v>
+        <v>5082</v>
       </c>
       <c r="E60">
-        <v>4628</v>
+        <v>4989</v>
       </c>
       <c r="F60">
-        <v>42422</v>
+        <v>44195</v>
       </c>
       <c r="G60">
-        <v>42406</v>
+        <v>44186</v>
       </c>
       <c r="H60">
-        <v>0.2243078809602415</v>
+        <v>0.2279455031005296</v>
       </c>
       <c r="I60">
-        <v>9516</v>
+        <v>10074</v>
       </c>
       <c r="J60">
-        <v>4886</v>
+        <v>5084</v>
       </c>
       <c r="K60">
-        <v>4630</v>
+        <v>4990</v>
       </c>
       <c r="L60">
-        <v>129540</v>
+        <v>130027</v>
       </c>
       <c r="M60">
-        <v>0.07345993515516443</v>
+        <v>0.07747621647811609</v>
       </c>
       <c r="N60">
-        <v>9526.333333333334</v>
+        <v>10021.66666666667</v>
       </c>
       <c r="O60">
-        <v>0.07353970459574906</v>
+        <v>0.077073735967658</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3329,49 +3413,49 @@
         </is>
       </c>
       <c r="C61">
-        <v>10128</v>
+        <v>10674</v>
       </c>
       <c r="D61">
-        <v>5173</v>
+        <v>5467</v>
       </c>
       <c r="E61">
-        <v>4954</v>
+        <v>5204</v>
       </c>
       <c r="F61">
-        <v>42422</v>
+        <v>44195</v>
       </c>
       <c r="G61">
-        <v>42406</v>
+        <v>44186</v>
       </c>
       <c r="H61">
-        <v>0.2388341272461444</v>
+        <v>0.2415697279681347</v>
       </c>
       <c r="I61">
-        <v>10132</v>
+        <v>10676</v>
       </c>
       <c r="J61">
-        <v>5176</v>
+        <v>5470</v>
       </c>
       <c r="K61">
-        <v>4956</v>
+        <v>5206</v>
       </c>
       <c r="L61">
-        <v>138751</v>
+        <v>141082</v>
       </c>
       <c r="M61">
-        <v>0.07302289713227292</v>
+        <v>0.07567230405012687</v>
       </c>
       <c r="N61">
-        <v>10007</v>
+        <v>10501.66666666667</v>
       </c>
       <c r="O61">
-        <v>0.07212200272430469</v>
+        <v>0.0744366160578009</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3380,49 +3464,49 @@
         </is>
       </c>
       <c r="C62">
-        <v>7516</v>
+        <v>7668</v>
       </c>
       <c r="D62">
-        <v>3820</v>
+        <v>3779</v>
       </c>
       <c r="E62">
-        <v>3692</v>
+        <v>3887</v>
       </c>
       <c r="F62">
-        <v>42422</v>
+        <v>44195</v>
       </c>
       <c r="G62">
-        <v>42406</v>
+        <v>44186</v>
       </c>
       <c r="H62">
-        <v>0.1772390699429326</v>
+        <v>0.1735391300411895</v>
       </c>
       <c r="I62">
-        <v>7519</v>
+        <v>7670</v>
       </c>
       <c r="J62">
-        <v>3824</v>
+        <v>3781</v>
       </c>
       <c r="K62">
-        <v>3695</v>
+        <v>3889</v>
       </c>
       <c r="L62">
-        <v>147158</v>
+        <v>145982</v>
       </c>
       <c r="M62">
-        <v>0.05109474170619335</v>
+        <v>0.05254072419887383</v>
       </c>
       <c r="N62">
-        <v>7455</v>
+        <v>7439.666666666667</v>
       </c>
       <c r="O62">
-        <v>0.05065983500727109</v>
+        <v>0.05096290410233225</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3431,49 +3515,49 @@
         </is>
       </c>
       <c r="C63">
-        <v>2078</v>
+        <v>1879</v>
       </c>
       <c r="D63">
-        <v>1021</v>
+        <v>958</v>
       </c>
       <c r="E63">
-        <v>1057</v>
+        <v>921</v>
       </c>
       <c r="F63">
-        <v>42422</v>
+        <v>44195</v>
       </c>
       <c r="G63">
-        <v>42406</v>
+        <v>44186</v>
       </c>
       <c r="H63">
-        <v>0.04900249964627647</v>
+        <v>0.04252478160503327</v>
       </c>
       <c r="I63">
-        <v>2079</v>
+        <v>1879</v>
       </c>
       <c r="J63">
-        <v>1021</v>
+        <v>958</v>
       </c>
       <c r="K63">
-        <v>1058</v>
+        <v>921</v>
       </c>
       <c r="L63">
-        <v>133694</v>
+        <v>128882</v>
       </c>
       <c r="M63">
-        <v>0.01555043607042949</v>
+        <v>0.0145792275104359</v>
       </c>
       <c r="N63">
-        <v>1992</v>
+        <v>1902.333333333333</v>
       </c>
       <c r="O63">
-        <v>0.01489969632145048</v>
+        <v>0.01476027166969269</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3482,49 +3566,49 @@
         </is>
       </c>
       <c r="C64">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D64">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E64">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F64">
-        <v>42422</v>
+        <v>44195</v>
       </c>
       <c r="G64">
-        <v>42406</v>
+        <v>44186</v>
       </c>
       <c r="H64">
-        <v>0.003042022355327076</v>
+        <v>0.002987371565654279</v>
       </c>
       <c r="I64">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J64">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K64">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L64">
-        <v>110488</v>
+        <v>107477</v>
       </c>
       <c r="M64">
-        <v>0.001167547606979943</v>
+        <v>0.001228169747946072</v>
       </c>
       <c r="N64">
-        <v>132.3333333333333</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="O64">
-        <v>0.001197716795790795</v>
+        <v>0.001197155360371676</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3533,49 +3617,49 @@
         </is>
       </c>
       <c r="C65">
-        <v>3772</v>
+        <v>4361</v>
       </c>
       <c r="D65">
-        <v>1910</v>
+        <v>2168</v>
       </c>
       <c r="E65">
-        <v>1861</v>
+        <v>2192</v>
       </c>
       <c r="F65">
-        <v>39361</v>
+        <v>42422</v>
       </c>
       <c r="G65">
-        <v>39346</v>
+        <v>42406</v>
       </c>
       <c r="H65">
-        <v>0.09586743252173029</v>
+        <v>0.1028392208649719</v>
       </c>
       <c r="I65">
-        <v>3773</v>
+        <v>4363</v>
       </c>
       <c r="J65">
-        <v>1911</v>
+        <v>2169</v>
       </c>
       <c r="K65">
-        <v>1862</v>
+        <v>2194</v>
       </c>
       <c r="L65">
-        <v>118022</v>
+        <v>118277</v>
       </c>
       <c r="M65">
-        <v>0.03196861602074189</v>
+        <v>0.0368879832934552</v>
       </c>
       <c r="N65">
-        <v>3820</v>
+        <v>4290.333333333333</v>
       </c>
       <c r="O65">
-        <v>0.03236684685906017</v>
+        <v>0.03627360630835524</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3584,49 +3668,49 @@
         </is>
       </c>
       <c r="C66">
-        <v>8053</v>
+        <v>8682</v>
       </c>
       <c r="D66">
-        <v>4113</v>
+        <v>4556</v>
       </c>
       <c r="E66">
-        <v>3937</v>
+        <v>4124</v>
       </c>
       <c r="F66">
-        <v>39361</v>
+        <v>42422</v>
       </c>
       <c r="G66">
-        <v>39346</v>
+        <v>42406</v>
       </c>
       <c r="H66">
-        <v>0.2046713770141819</v>
+        <v>0.204735178984106</v>
       </c>
       <c r="I66">
-        <v>8056</v>
+        <v>8685</v>
       </c>
       <c r="J66">
-        <v>4116</v>
+        <v>4559</v>
       </c>
       <c r="K66">
-        <v>3940</v>
+        <v>4126</v>
       </c>
       <c r="L66">
-        <v>126328</v>
+        <v>125900</v>
       </c>
       <c r="M66">
-        <v>0.0637705021847888</v>
+        <v>0.06898332009531374</v>
       </c>
       <c r="N66">
-        <v>8120</v>
+        <v>8590</v>
       </c>
       <c r="O66">
-        <v>0.06427711987841175</v>
+        <v>0.06822875297855441</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3635,49 +3719,49 @@
         </is>
       </c>
       <c r="C67">
-        <v>8986</v>
+        <v>9512</v>
       </c>
       <c r="D67">
-        <v>4615</v>
+        <v>4883</v>
       </c>
       <c r="E67">
-        <v>4370</v>
+        <v>4628</v>
       </c>
       <c r="F67">
-        <v>39361</v>
+        <v>42422</v>
       </c>
       <c r="G67">
-        <v>39346</v>
+        <v>42406</v>
       </c>
       <c r="H67">
-        <v>0.2283840797031464</v>
+        <v>0.2243078809602415</v>
       </c>
       <c r="I67">
-        <v>8989</v>
+        <v>9516</v>
       </c>
       <c r="J67">
-        <v>4617</v>
+        <v>4886</v>
       </c>
       <c r="K67">
-        <v>4372</v>
+        <v>4630</v>
       </c>
       <c r="L67">
-        <v>129515</v>
+        <v>129540</v>
       </c>
       <c r="M67">
-        <v>0.06940508821372042</v>
+        <v>0.07345993515516443</v>
       </c>
       <c r="N67">
-        <v>9178.333333333334</v>
+        <v>9526.333333333334</v>
       </c>
       <c r="O67">
-        <v>0.0708669523478619</v>
+        <v>0.07353970459574906</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3686,49 +3770,49 @@
         </is>
       </c>
       <c r="C68">
-        <v>9209</v>
+        <v>10128</v>
       </c>
       <c r="D68">
-        <v>4713</v>
+        <v>5173</v>
       </c>
       <c r="E68">
-        <v>4496</v>
+        <v>4954</v>
       </c>
       <c r="F68">
-        <v>39361</v>
+        <v>42422</v>
       </c>
       <c r="G68">
-        <v>39346</v>
+        <v>42406</v>
       </c>
       <c r="H68">
-        <v>0.2340517460478829</v>
+        <v>0.2388341272461444</v>
       </c>
       <c r="I68">
-        <v>9213</v>
+        <v>10132</v>
       </c>
       <c r="J68">
-        <v>4715</v>
+        <v>5176</v>
       </c>
       <c r="K68">
-        <v>4498</v>
+        <v>4956</v>
       </c>
       <c r="L68">
-        <v>136814</v>
+        <v>138751</v>
       </c>
       <c r="M68">
-        <v>0.06733959974856374</v>
+        <v>0.07302289713227292</v>
       </c>
       <c r="N68">
-        <v>9434.666666666666</v>
+        <v>10007</v>
       </c>
       <c r="O68">
-        <v>0.06895980430852593</v>
+        <v>0.07212200272430469</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3737,49 +3821,49 @@
         </is>
       </c>
       <c r="C69">
-        <v>7173</v>
+        <v>7516</v>
       </c>
       <c r="D69">
-        <v>3678</v>
+        <v>3820</v>
       </c>
       <c r="E69">
-        <v>3495</v>
+        <v>3692</v>
       </c>
       <c r="F69">
-        <v>39361</v>
+        <v>42422</v>
       </c>
       <c r="G69">
-        <v>39346</v>
+        <v>42406</v>
       </c>
       <c r="H69">
-        <v>0.1823056981649977</v>
+        <v>0.1772390699429326</v>
       </c>
       <c r="I69">
-        <v>7176</v>
+        <v>7519</v>
       </c>
       <c r="J69">
-        <v>3680</v>
+        <v>3824</v>
       </c>
       <c r="K69">
-        <v>3496</v>
+        <v>3695</v>
       </c>
       <c r="L69">
-        <v>147312</v>
+        <v>147158</v>
       </c>
       <c r="M69">
-        <v>0.04871293580971001</v>
+        <v>0.05109474170619335</v>
       </c>
       <c r="N69">
-        <v>7204.333333333333</v>
+        <v>7455</v>
       </c>
       <c r="O69">
-        <v>0.04890527135150791</v>
+        <v>0.05065983500727109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3788,49 +3872,49 @@
         </is>
       </c>
       <c r="C70">
-        <v>2017</v>
+        <v>2078</v>
       </c>
       <c r="D70">
-        <v>1041</v>
+        <v>1021</v>
       </c>
       <c r="E70">
-        <v>976</v>
+        <v>1057</v>
       </c>
       <c r="F70">
-        <v>39361</v>
+        <v>42422</v>
       </c>
       <c r="G70">
-        <v>39346</v>
+        <v>42406</v>
       </c>
       <c r="H70">
-        <v>0.05126315254409597</v>
+        <v>0.04900249964627647</v>
       </c>
       <c r="I70">
-        <v>2018</v>
+        <v>2079</v>
       </c>
       <c r="J70">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="K70">
-        <v>976</v>
+        <v>1058</v>
       </c>
       <c r="L70">
-        <v>137800</v>
+        <v>133694</v>
       </c>
       <c r="M70">
-        <v>0.014644412191582</v>
+        <v>0.01555043607042949</v>
       </c>
       <c r="N70">
-        <v>2048.666666666667</v>
+        <v>1992</v>
       </c>
       <c r="O70">
-        <v>0.01486695694242864</v>
+        <v>0.01489969632145048</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3839,49 +3923,49 @@
         </is>
       </c>
       <c r="C71">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D71">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E71">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F71">
-        <v>39361</v>
+        <v>42422</v>
       </c>
       <c r="G71">
-        <v>39346</v>
+        <v>42406</v>
       </c>
       <c r="H71">
-        <v>0.003456514003964825</v>
+        <v>0.003042022355327076</v>
       </c>
       <c r="I71">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J71">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K71">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L71">
-        <v>114163</v>
+        <v>110488</v>
       </c>
       <c r="M71">
-        <v>0.00119127913597225</v>
+        <v>0.001167547606979943</v>
       </c>
       <c r="N71">
-        <v>133.6666666666667</v>
+        <v>132.3333333333333</v>
       </c>
       <c r="O71">
-        <v>0.001170840523345275</v>
+        <v>0.001197716795790795</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3890,43 +3974,49 @@
         </is>
       </c>
       <c r="C72">
-        <v>3323</v>
+        <v>3772</v>
       </c>
       <c r="D72">
-        <v>1739</v>
+        <v>1910</v>
       </c>
       <c r="E72">
-        <v>1582</v>
+        <v>1861</v>
       </c>
       <c r="F72">
-        <v>38035</v>
+        <v>39361</v>
       </c>
       <c r="G72">
-        <v>38021</v>
+        <v>39346</v>
       </c>
       <c r="H72">
-        <v>0.08739906893558823</v>
+        <v>0.09586743252173029</v>
       </c>
       <c r="I72">
-        <v>3324</v>
+        <v>3773</v>
       </c>
       <c r="J72">
-        <v>1741</v>
+        <v>1911</v>
       </c>
       <c r="K72">
-        <v>1583</v>
+        <v>1862</v>
       </c>
       <c r="L72">
-        <v>117084</v>
+        <v>118022</v>
       </c>
       <c r="M72">
-        <v>0.02838987393666086</v>
+        <v>0.03196861602074189</v>
+      </c>
+      <c r="N72">
+        <v>3820</v>
+      </c>
+      <c r="O72">
+        <v>0.03236684685906017</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3935,43 +4025,49 @@
         </is>
       </c>
       <c r="C73">
-        <v>7616</v>
+        <v>8053</v>
       </c>
       <c r="D73">
-        <v>3903</v>
+        <v>4113</v>
       </c>
       <c r="E73">
-        <v>3713</v>
+        <v>3937</v>
       </c>
       <c r="F73">
-        <v>38035</v>
+        <v>39361</v>
       </c>
       <c r="G73">
-        <v>38021</v>
+        <v>39346</v>
       </c>
       <c r="H73">
-        <v>0.2003103548039241</v>
+        <v>0.2046713770141819</v>
       </c>
       <c r="I73">
-        <v>7619</v>
+        <v>8056</v>
       </c>
       <c r="J73">
-        <v>3905</v>
+        <v>4116</v>
       </c>
       <c r="K73">
-        <v>3714</v>
+        <v>3940</v>
       </c>
       <c r="L73">
-        <v>127130</v>
+        <v>126328</v>
       </c>
       <c r="M73">
-        <v>0.05993077951702981</v>
+        <v>0.0637705021847888</v>
+      </c>
+      <c r="N73">
+        <v>8120</v>
+      </c>
+      <c r="O73">
+        <v>0.06427711987841175</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3980,43 +4076,49 @@
         </is>
       </c>
       <c r="C74">
-        <v>9027</v>
+        <v>8986</v>
       </c>
       <c r="D74">
-        <v>4609</v>
+        <v>4615</v>
       </c>
       <c r="E74">
-        <v>4417</v>
+        <v>4370</v>
       </c>
       <c r="F74">
-        <v>38035</v>
+        <v>39361</v>
       </c>
       <c r="G74">
-        <v>38021</v>
+        <v>39346</v>
       </c>
       <c r="H74">
-        <v>0.2374214250019726</v>
+        <v>0.2283840797031464</v>
       </c>
       <c r="I74">
-        <v>9030</v>
+        <v>8989</v>
       </c>
       <c r="J74">
-        <v>4611</v>
+        <v>4617</v>
       </c>
       <c r="K74">
-        <v>4419</v>
+        <v>4372</v>
       </c>
       <c r="L74">
-        <v>129843</v>
+        <v>129515</v>
       </c>
       <c r="M74">
-        <v>0.06954552806081191</v>
+        <v>0.06940508821372042</v>
+      </c>
+      <c r="N74">
+        <v>9178.333333333334</v>
+      </c>
+      <c r="O74">
+        <v>0.0708669523478619</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4025,43 +4127,49 @@
         </is>
       </c>
       <c r="C75">
-        <v>8956</v>
+        <v>9209</v>
       </c>
       <c r="D75">
-        <v>4490</v>
+        <v>4713</v>
       </c>
       <c r="E75">
-        <v>4465</v>
+        <v>4496</v>
       </c>
       <c r="F75">
-        <v>38035</v>
+        <v>39361</v>
       </c>
       <c r="G75">
-        <v>38021</v>
+        <v>39346</v>
       </c>
       <c r="H75">
-        <v>0.2355540359275138</v>
+        <v>0.2340517460478829</v>
       </c>
       <c r="I75">
-        <v>8959</v>
+        <v>9213</v>
       </c>
       <c r="J75">
-        <v>4492</v>
+        <v>4715</v>
       </c>
       <c r="K75">
-        <v>4467</v>
+        <v>4498</v>
       </c>
       <c r="L75">
-        <v>135194</v>
+        <v>136814</v>
       </c>
       <c r="M75">
-        <v>0.06626773377516754</v>
+        <v>0.06733959974856374</v>
+      </c>
+      <c r="N75">
+        <v>9434.666666666666</v>
+      </c>
+      <c r="O75">
+        <v>0.06895980430852593</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4070,43 +4178,49 @@
         </is>
       </c>
       <c r="C76">
-        <v>6915</v>
+        <v>7173</v>
       </c>
       <c r="D76">
-        <v>3525</v>
+        <v>3678</v>
       </c>
       <c r="E76">
-        <v>3390</v>
+        <v>3495</v>
       </c>
       <c r="F76">
-        <v>38035</v>
+        <v>39361</v>
       </c>
       <c r="G76">
-        <v>38021</v>
+        <v>39346</v>
       </c>
       <c r="H76">
-        <v>0.1818731753504642</v>
+        <v>0.1823056981649977</v>
       </c>
       <c r="I76">
-        <v>6918</v>
+        <v>7176</v>
       </c>
       <c r="J76">
-        <v>3527</v>
+        <v>3680</v>
       </c>
       <c r="K76">
-        <v>3391</v>
+        <v>3496</v>
       </c>
       <c r="L76">
-        <v>146505</v>
+        <v>147312</v>
       </c>
       <c r="M76">
-        <v>0.04722023139142009</v>
+        <v>0.04871293580971001</v>
+      </c>
+      <c r="N76">
+        <v>7204.333333333333</v>
+      </c>
+      <c r="O76">
+        <v>0.04890527135150791</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4115,43 +4229,49 @@
         </is>
       </c>
       <c r="C77">
-        <v>2048</v>
+        <v>2017</v>
       </c>
       <c r="D77">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="E77">
-        <v>1023</v>
+        <v>976</v>
       </c>
       <c r="F77">
-        <v>38035</v>
+        <v>39361</v>
       </c>
       <c r="G77">
-        <v>38021</v>
+        <v>39346</v>
       </c>
       <c r="H77">
-        <v>0.05386496935903843</v>
+        <v>0.05126315254409597</v>
       </c>
       <c r="I77">
-        <v>2049</v>
+        <v>2018</v>
       </c>
       <c r="J77">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="K77">
-        <v>1024</v>
+        <v>976</v>
       </c>
       <c r="L77">
-        <v>141258</v>
+        <v>137800</v>
       </c>
       <c r="M77">
-        <v>0.0145053731470076</v>
+        <v>0.014644412191582</v>
+      </c>
+      <c r="N77">
+        <v>2048.666666666667</v>
+      </c>
+      <c r="O77">
+        <v>0.01486695694242864</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4163,33 +4283,354 @@
         <v>136</v>
       </c>
       <c r="D78">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E78">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F78">
-        <v>38035</v>
+        <v>39361</v>
       </c>
       <c r="G78">
-        <v>38021</v>
+        <v>39346</v>
       </c>
       <c r="H78">
-        <v>0.003576970621498646</v>
+        <v>0.003456514003964825</v>
       </c>
       <c r="I78">
         <v>136</v>
       </c>
       <c r="J78">
+        <v>64</v>
+      </c>
+      <c r="K78">
+        <v>72</v>
+      </c>
+      <c r="L78">
+        <v>114163</v>
+      </c>
+      <c r="M78">
+        <v>0.00119127913597225</v>
+      </c>
+      <c r="N78">
+        <v>133.6666666666667</v>
+      </c>
+      <c r="O78">
+        <v>0.001170840523345275</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>15 a 19 anos</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>3323</v>
+      </c>
+      <c r="D79">
+        <v>1739</v>
+      </c>
+      <c r="E79">
+        <v>1582</v>
+      </c>
+      <c r="F79">
+        <v>38035</v>
+      </c>
+      <c r="G79">
+        <v>38021</v>
+      </c>
+      <c r="H79">
+        <v>0.08739906893558823</v>
+      </c>
+      <c r="I79">
+        <v>3324</v>
+      </c>
+      <c r="J79">
+        <v>1741</v>
+      </c>
+      <c r="K79">
+        <v>1583</v>
+      </c>
+      <c r="L79">
+        <v>117084</v>
+      </c>
+      <c r="M79">
+        <v>0.02838987393666086</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20 a 24 anos</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>7616</v>
+      </c>
+      <c r="D80">
+        <v>3903</v>
+      </c>
+      <c r="E80">
+        <v>3713</v>
+      </c>
+      <c r="F80">
+        <v>38035</v>
+      </c>
+      <c r="G80">
+        <v>38021</v>
+      </c>
+      <c r="H80">
+        <v>0.2003103548039241</v>
+      </c>
+      <c r="I80">
+        <v>7619</v>
+      </c>
+      <c r="J80">
+        <v>3905</v>
+      </c>
+      <c r="K80">
+        <v>3714</v>
+      </c>
+      <c r="L80">
+        <v>127130</v>
+      </c>
+      <c r="M80">
+        <v>0.05993077951702981</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>25 a 29 anos</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>9027</v>
+      </c>
+      <c r="D81">
+        <v>4609</v>
+      </c>
+      <c r="E81">
+        <v>4417</v>
+      </c>
+      <c r="F81">
+        <v>38035</v>
+      </c>
+      <c r="G81">
+        <v>38021</v>
+      </c>
+      <c r="H81">
+        <v>0.2374214250019726</v>
+      </c>
+      <c r="I81">
+        <v>9030</v>
+      </c>
+      <c r="J81">
+        <v>4611</v>
+      </c>
+      <c r="K81">
+        <v>4419</v>
+      </c>
+      <c r="L81">
+        <v>129843</v>
+      </c>
+      <c r="M81">
+        <v>0.06954552806081191</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>30 a 34 anos</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>8956</v>
+      </c>
+      <c r="D82">
+        <v>4490</v>
+      </c>
+      <c r="E82">
+        <v>4465</v>
+      </c>
+      <c r="F82">
+        <v>38035</v>
+      </c>
+      <c r="G82">
+        <v>38021</v>
+      </c>
+      <c r="H82">
+        <v>0.2355540359275138</v>
+      </c>
+      <c r="I82">
+        <v>8959</v>
+      </c>
+      <c r="J82">
+        <v>4492</v>
+      </c>
+      <c r="K82">
+        <v>4467</v>
+      </c>
+      <c r="L82">
+        <v>135194</v>
+      </c>
+      <c r="M82">
+        <v>0.06626773377516754</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>35 a 39 anos</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>6915</v>
+      </c>
+      <c r="D83">
+        <v>3525</v>
+      </c>
+      <c r="E83">
+        <v>3390</v>
+      </c>
+      <c r="F83">
+        <v>38035</v>
+      </c>
+      <c r="G83">
+        <v>38021</v>
+      </c>
+      <c r="H83">
+        <v>0.1818731753504642</v>
+      </c>
+      <c r="I83">
+        <v>6918</v>
+      </c>
+      <c r="J83">
+        <v>3527</v>
+      </c>
+      <c r="K83">
+        <v>3391</v>
+      </c>
+      <c r="L83">
+        <v>146505</v>
+      </c>
+      <c r="M83">
+        <v>0.04722023139142009</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>40 a 44 anos</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>2048</v>
+      </c>
+      <c r="D84">
+        <v>1023</v>
+      </c>
+      <c r="E84">
+        <v>1023</v>
+      </c>
+      <c r="F84">
+        <v>38035</v>
+      </c>
+      <c r="G84">
+        <v>38021</v>
+      </c>
+      <c r="H84">
+        <v>0.05386496935903843</v>
+      </c>
+      <c r="I84">
+        <v>2049</v>
+      </c>
+      <c r="J84">
+        <v>1024</v>
+      </c>
+      <c r="K84">
+        <v>1024</v>
+      </c>
+      <c r="L84">
+        <v>141258</v>
+      </c>
+      <c r="M84">
+        <v>0.0145053731470076</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>45 a 49 anos</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>136</v>
+      </c>
+      <c r="D85">
         <v>77</v>
       </c>
-      <c r="K78">
+      <c r="E85">
         <v>59</v>
       </c>
-      <c r="L78">
+      <c r="F85">
+        <v>38035</v>
+      </c>
+      <c r="G85">
+        <v>38021</v>
+      </c>
+      <c r="H85">
+        <v>0.003576970621498646</v>
+      </c>
+      <c r="I85">
+        <v>136</v>
+      </c>
+      <c r="J85">
+        <v>77</v>
+      </c>
+      <c r="K85">
+        <v>59</v>
+      </c>
+      <c r="L85">
         <v>118439</v>
       </c>
-      <c r="M78">
+      <c r="M85">
         <v>0.001148270417683365</v>
       </c>
     </row>
